--- a/biology/Zoologie/Coucal_de_Steere/Coucal_de_Steere.xlsx
+++ b/biology/Zoologie/Coucal_de_Steere/Coucal_de_Steere.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centropus steerii
 Le Coucal de Steere, aussi Coucal de Steer, (Centropus steerii) est une espèce de coucals, oiseau de la famille des Cuculidae, endémique des forêts pluviales de Mindoro aux Philippines.
